--- a/data/hotels_by_city/Houston/Houston_shard_242.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_242.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="125">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d10619143-Reviews-Fairfield_Inn_Suites_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Fairfield-Inn-Suites-Houston-NorthwestWillowbrook.h15703429.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,252 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10619143-r564385907-Fairfield_Inn_Suites_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>10619143</t>
+  </si>
+  <si>
+    <t>564385907</t>
+  </si>
+  <si>
+    <t>03/04/2018</t>
+  </si>
+  <si>
+    <t>Meets all my needs!</t>
+  </si>
+  <si>
+    <t>My third time at this property as a result of business trips. Couldn’t be easier to find off the tollway although a little awkward getting to the actual hotel after the turn off. Front desk team is always pleasant and knowledgeable and the rooms have always been clean, well lit, good Wi-Fi and quiet. Breakfast is as good as most and the attendant is extraordinarily pleasant. There’s a happy hour on Wednesday evenings that offers up beer and wine and a reasonable snack. I’ll be coming back!</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10619143-r562701596-Fairfield_Inn_Suites_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>562701596</t>
+  </si>
+  <si>
+    <t>02/25/2018</t>
+  </si>
+  <si>
+    <t>Great breakfast</t>
+  </si>
+  <si>
+    <t>This was not a perfect stay. The check in clerk (as part of work she needed to do) was busy when I checked in and was slow to get me into the system for wi-fi access. She then did a great job checking with me to follow up, and was overall friendly and professional.  The Hulu built in to the TV (a great new feature in some hotels, really appreciated) would never play right--maybe an Internet connection or speed issue. So I was inclined to give them four stars for this stay. Then I went to breakfast. Now, they could use a little more seating, especially small tables for people traveling solo like me, but (a) biscuits and gravy, (b) cheese omelettes instead of just scrambled eggs, and (c) good fresh fruit. Maybe they don't have great breakfast every day, but compared to so many placed like this that are skimpy, I appreciate they had good choices and kept it well stocked along the way.  It's a relatively new hotel that's clean and modern. No-brainer for me to stay here again when back in this area.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>This was not a perfect stay. The check in clerk (as part of work she needed to do) was busy when I checked in and was slow to get me into the system for wi-fi access. She then did a great job checking with me to follow up, and was overall friendly and professional.  The Hulu built in to the TV (a great new feature in some hotels, really appreciated) would never play right--maybe an Internet connection or speed issue. So I was inclined to give them four stars for this stay. Then I went to breakfast. Now, they could use a little more seating, especially small tables for people traveling solo like me, but (a) biscuits and gravy, (b) cheese omelettes instead of just scrambled eggs, and (c) good fresh fruit. Maybe they don't have great breakfast every day, but compared to so many placed like this that are skimpy, I appreciate they had good choices and kept it well stocked along the way.  It's a relatively new hotel that's clean and modern. No-brainer for me to stay here again when back in this area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10619143-r548548703-Fairfield_Inn_Suites_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>548548703</t>
+  </si>
+  <si>
+    <t>12/21/2017</t>
+  </si>
+  <si>
+    <t>Great Experience!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beautiful New Hotel! Great, friendly Staff! Large, well appointed Rooms, great price! Complimentary Breakfast, Nice Pool, Coffee available in Room, Refrigerator,  Microwave....Requested Extra Pillows-they were in Room as requested.Really nice Shower, EVERYTHING Spotless!What more can you ask for?  </t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10619143-r541015934-Fairfield_Inn_Suites_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>541015934</t>
+  </si>
+  <si>
+    <t>11/14/2017</t>
+  </si>
+  <si>
+    <t>Another Night - Another New Property</t>
+  </si>
+  <si>
+    <t>And this time a nice new Fairfield Inn.  After staying at a new TownePlace Suites in Austin, glad I got to stay at this new property.  And really like the new styles and designs for what used to be rather worn out facilities.This location on the north side of Houston off the Sam Houston Tollway.  Not too far from IAH as well - maybe 20 minutes without traffic.Along with the new design, a friendly and welcoming staff.  Very helpful with directions and dining choices in the area.  Nice new rooms, a welcome update from older Fairfield Inn decor.  Nice bed, plenty of pillows, good internet service, enough room for work and plenty of outlets; always nice not to have to unplug a lamp.Small fitness center but well equipped.  Very nice breakfast area with a small bar for evening cocktails.  Once again - the usual breakfast choices, nice healthy options along with the usual selections.And while the location may seem a bit desolate, this property is a very short drive from a lot of different dining choices as well as shopping.  Kind of nice being off on it's own, keeps it quiet.  A good choice if business or pleasure takes you the northwest side of town.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>And this time a nice new Fairfield Inn.  After staying at a new TownePlace Suites in Austin, glad I got to stay at this new property.  And really like the new styles and designs for what used to be rather worn out facilities.This location on the north side of Houston off the Sam Houston Tollway.  Not too far from IAH as well - maybe 20 minutes without traffic.Along with the new design, a friendly and welcoming staff.  Very helpful with directions and dining choices in the area.  Nice new rooms, a welcome update from older Fairfield Inn decor.  Nice bed, plenty of pillows, good internet service, enough room for work and plenty of outlets; always nice not to have to unplug a lamp.Small fitness center but well equipped.  Very nice breakfast area with a small bar for evening cocktails.  Once again - the usual breakfast choices, nice healthy options along with the usual selections.And while the location may seem a bit desolate, this property is a very short drive from a lot of different dining choices as well as shopping.  Kind of nice being off on it's own, keeps it quiet.  A good choice if business or pleasure takes you the northwest side of town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10619143-r539774626-Fairfield_Inn_Suites_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>539774626</t>
+  </si>
+  <si>
+    <t>11/09/2017</t>
+  </si>
+  <si>
+    <t>Best Staff and Nice New Hotel</t>
+  </si>
+  <si>
+    <t>We had our company manager's meeting in their meeting room plus we stayed in the rooms.  Nice new hotel with clean rooms.  Meeting room was large.  Main plus was the staff.  They were amazing.  Anything that we needed they were on the spot to help us!</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10619143-r538145530-Fairfield_Inn_Suites_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>538145530</t>
+  </si>
+  <si>
+    <t>11/03/2017</t>
+  </si>
+  <si>
+    <t>Amazing Experience!</t>
+  </si>
+  <si>
+    <t>I was there for training and the staff was tremendous! I am a nursing mother so I am so grateful for their accommodations! I was able to pump comfortably! I especially want to thank Loretta &amp; Martha-Truly wonderful women!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10619143-r530254390-Fairfield_Inn_Suites_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>530254390</t>
+  </si>
+  <si>
+    <t>10/05/2017</t>
+  </si>
+  <si>
+    <t>Angionette provides  outstanding customer service</t>
+  </si>
+  <si>
+    <t>I made a mistake in my reservation and left for the day not realizing that I was to check out that day.  I called the hotel and spoke to Angionette in which she explained they were booked.  She also stated to give her an hour or so to see what she could do working with the site GM.  She called me back and was able to take care of me and even allowed me to not move rooms.  I so appreciate the customer service and an grateful for Agionettes customer service skills!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10619143-r518517760-Fairfield_Inn_Suites_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>518517760</t>
+  </si>
+  <si>
+    <t>08/28/2017</t>
+  </si>
+  <si>
+    <t>Quite nice facility. Would recommend</t>
+  </si>
+  <si>
+    <t>This Fairfield Inn is clean, comfortable and staff was not only polite and friendly but very helpful. Breakfast was quite good if you ignore the fact that the egg omelets come from the microwave but all-in-all the stay was very good. We have actually planned to stay a few more nights while Visa applications for foreign travel were processed but Hurricane Harvey had other ideas. Hope the hotel does not incur any damage.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10619143-r514039728-Fairfield_Inn_Suites_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>514039728</t>
+  </si>
+  <si>
+    <t>08/16/2017</t>
+  </si>
+  <si>
+    <t>Great budget hotel</t>
+  </si>
+  <si>
+    <t>We were in Houston visiting my girlfriend’s family and found the Fairfield inn nearby them. Great price and looked fine. Not a location I’d stay in if I was visiting Houston as a tourist. It was very new though and had large rooms. Great bathroom and showers. The workout room is 2 treadmills that I was the only person who used. Which was annoying because they had 10 min limits on them. So you’d have to stop and restart. There are some dumbbells too. There’s a pool but it was way too hot outside. It’s off the freeway so easy access. Staff is friendly. They have breakfast with decent options for a bite in the morning. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>We were in Houston visiting my girlfriend’s family and found the Fairfield inn nearby them. Great price and looked fine. Not a location I’d stay in if I was visiting Houston as a tourist. It was very new though and had large rooms. Great bathroom and showers. The workout room is 2 treadmills that I was the only person who used. Which was annoying because they had 10 min limits on them. So you’d have to stop and restart. There are some dumbbells too. There’s a pool but it was way too hot outside. It’s off the freeway so easy access. Staff is friendly. They have breakfast with decent options for a bite in the morning. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10619143-r490801189-Fairfield_Inn_Suites_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>490801189</t>
+  </si>
+  <si>
+    <t>06/05/2017</t>
+  </si>
+  <si>
+    <t>Stayed during IROP shut down at IAH airport</t>
+  </si>
+  <si>
+    <t>While a fairly new hotel, I stayed here as area IAH airport hotels were sold out due to airport weather shut down. Glad I did as the place had that new car smell and the employees were very helpful. Room was excellent and provided a nice break from the airport madness. Breakfast in the morning was very good and provided some healthy options.  Also the lobby was spacious with some comfortable lounge chairs for relaxing. Thanks to all.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10619143-r484681429-Fairfield_Inn_Suites_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>484681429</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Impressions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Had a great stay. New property opened in September.  Staff does a great job of maintaining. Room was comfortable and complimentary breakfast hit the spot. Kudos to the front desk staff for being pleasant and friendly.  Many times it's about the little details which make the difference.  Check them out. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10619143-r461875370-Fairfield_Inn_Suites_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>461875370</t>
+  </si>
+  <si>
+    <t>02/21/2017</t>
+  </si>
+  <si>
+    <t>Less than impressed</t>
+  </si>
+  <si>
+    <t>First, this is a fairly new property and the rooms are clean and decent. But as a Marriott Platinum Elite customer, I was not very satisfied with the stay. My profile says 'high floor' preferred, they put me on the first and so I had to listen to hours of people above me thinking my ceiling was their bounce house. I qualify for room upgrades, and even though they seemed not very busy and a room upgrade should have been available, I was put in a standard room. The desk clerk allowed kids to play on the business work station computer for hours--I left for dinner and was gone for two hours, and the same ones were still there, blocking use for normal, intended purposes, when I returned.  They made an error with my bill and I had to get it corrected the next morning. And the free breakfast was too basic and not very tasty. So, good room for a good price, yes. Better than average experience for me, no.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Management response:Responded February 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2017</t>
+  </si>
+  <si>
+    <t>First, this is a fairly new property and the rooms are clean and decent. But as a Marriott Platinum Elite customer, I was not very satisfied with the stay. My profile says 'high floor' preferred, they put me on the first and so I had to listen to hours of people above me thinking my ceiling was their bounce house. I qualify for room upgrades, and even though they seemed not very busy and a room upgrade should have been available, I was put in a standard room. The desk clerk allowed kids to play on the business work station computer for hours--I left for dinner and was gone for two hours, and the same ones were still there, blocking use for normal, intended purposes, when I returned.  They made an error with my bill and I had to get it corrected the next morning. And the free breakfast was too basic and not very tasty. So, good room for a good price, yes. Better than average experience for me, no.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +784,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +816,801 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>65348</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>65348</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>65348</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>65348</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>65348</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>65348</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>79</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>65348</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>72</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>65348</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" t="s">
+        <v>96</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>65348</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" t="s">
+        <v>101</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>102</v>
+      </c>
+      <c r="O10" t="s">
+        <v>96</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>65348</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>65348</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" t="s">
+        <v>113</v>
+      </c>
+      <c r="L12" t="s">
+        <v>114</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>109</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>65348</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" t="s">
+        <v>118</v>
+      </c>
+      <c r="L13" t="s">
+        <v>119</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>120</v>
+      </c>
+      <c r="O13" t="s">
+        <v>121</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>122</v>
+      </c>
+      <c r="X13" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_242.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_242.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="176">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/09/2018</t>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10619143-r590554819-Fairfield_Inn_Suites_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>10619143</t>
+  </si>
+  <si>
+    <t>590554819</t>
+  </si>
+  <si>
+    <t>06/25/2018</t>
+  </si>
+  <si>
+    <t>Very clean with huge shower</t>
+  </si>
+  <si>
+    <t>This Hotel is pretty new and clean. The staff was great and very helpful. Room was very clean, bed was very comfortable, I loved that the shower was HUGE, breakfast was good. I would probably pick this hotel again over LQ. Don't get me wrong LQ is pretty good too but you can't beat new...</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10619143-r584355725-Fairfield_Inn_Suites_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>584355725</t>
+  </si>
+  <si>
+    <t>06/01/2018</t>
+  </si>
+  <si>
+    <t>Very comfortable</t>
+  </si>
+  <si>
+    <t>I had a very nice quick stay. The bed was comfortable, room was clean. Their was a comfortable chair in room. The lobby and breakfast bar was very nice and well maintained. I would recommend this hotel.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10619143-r564385907-Fairfield_Inn_Suites_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>10619143</t>
-  </si>
-  <si>
     <t>564385907</t>
   </si>
   <si>
@@ -171,12 +213,6 @@
     <t>My third time at this property as a result of business trips. Couldn’t be easier to find off the tollway although a little awkward getting to the actual hotel after the turn off. Front desk team is always pleasant and knowledgeable and the rooms have always been clean, well lit, good Wi-Fi and quiet. Breakfast is as good as most and the attendant is extraordinarily pleasant. There’s a happy hour on Wednesday evenings that offers up beer and wine and a reasonable snack. I’ll be coming back!</t>
   </si>
   <si>
-    <t>March 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10619143-r562701596-Fairfield_Inn_Suites_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -216,7 +252,49 @@
     <t>December 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10619143-r547226562-Fairfield_Inn_Suites_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>547226562</t>
+  </si>
+  <si>
+    <t>12/14/2017</t>
+  </si>
+  <si>
+    <t>Immature and Bratty Poor Front Desk Service</t>
+  </si>
+  <si>
+    <t>My wife and I stayed for Thanksgiving. On our final night a staff member smelled smoke in our room and charged us $250. We smoke but wohuld never inside a room so I went to ask the front desk to straighten out a simple misunderststanding. We were instead met with an angry front desk clerk who threatened to call the police on my wife and I. The hotel's general manager was no help either and we ended up leaving a night early with a $250 charge. I would avoid this hotel at all costsMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Dafne T, General Manager at Fairfield Inn &amp; Suites Houston Northwest/Willowbrook, responded to this reviewResponded December 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 17, 2017</t>
+  </si>
+  <si>
+    <t>My wife and I stayed for Thanksgiving. On our final night a staff member smelled smoke in our room and charged us $250. We smoke but wohuld never inside a room so I went to ask the front desk to straighten out a simple misunderststanding. We were instead met with an angry front desk clerk who threatened to call the police on my wife and I. The hotel's general manager was no help either and we ended up leaving a night early with a $250 charge. I would avoid this hotel at all costsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10619143-r545864575-Fairfield_Inn_Suites_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>545864575</t>
+  </si>
+  <si>
+    <t>12/07/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awesome clean rooms and great service </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very pleased with the clean rooms and great customer service at the front desk. Gym and breakfast are great perks to this well kept hotel that is near the beltway. Will stay here again anytime I am in town for work. </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10619143-r541015934-Fairfield_Inn_Suites_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
@@ -255,9 +333,6 @@
     <t>We had our company manager's meeting in their meeting room plus we stayed in the rooms.  Nice new hotel with clean rooms.  Meeting room was large.  Main plus was the staff.  They were amazing.  Anything that we needed they were on the spot to help us!</t>
   </si>
   <si>
-    <t>November 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10619143-r538145530-Fairfield_Inn_Suites_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -273,6 +348,39 @@
     <t>I was there for training and the staff was tremendous! I am a nursing mother so I am so grateful for their accommodations! I was able to pump comfortably! I especially want to thank Loretta &amp; Martha-Truly wonderful women!</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10619143-r536428735-Fairfield_Inn_Suites_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>536428735</t>
+  </si>
+  <si>
+    <t>10/27/2017</t>
+  </si>
+  <si>
+    <t>Sweetest staff and updated decor</t>
+  </si>
+  <si>
+    <t>My husband and I  stayed here for over a month after being flooded in the Harvey Hurricane that hit Houston. The place is very pretty and feels new. They have a breakfast every morning and the nicest lady ever, Martha, makes you feel comfortable and is always happy to refill the empty coffee container! Lacey at the front door as well as the GM were so helpful and kind during a difficult time in my life. The pool area and gym are very nice as well. We swam often! We also enjoyed the happy hour on Wednesday. All and all I think this is a great place to stay. A bonus is the GREAT sushi place across the street Kawa Sushi. My only complaint is the sheets were not very soft. But I'm picky that way.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I  stayed here for over a month after being flooded in the Harvey Hurricane that hit Houston. The place is very pretty and feels new. They have a breakfast every morning and the nicest lady ever, Martha, makes you feel comfortable and is always happy to refill the empty coffee container! Lacey at the front door as well as the GM were so helpful and kind during a difficult time in my life. The pool area and gym are very nice as well. We swam often! We also enjoyed the happy hour on Wednesday. All and all I think this is a great place to stay. A bonus is the GREAT sushi place across the street Kawa Sushi. My only complaint is the sheets were not very soft. But I'm picky that way.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10619143-r534122988-Fairfield_Inn_Suites_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>534122988</t>
+  </si>
+  <si>
+    <t>10/18/2017</t>
+  </si>
+  <si>
+    <t>good stay but not great</t>
+  </si>
+  <si>
+    <t>Had a good stay but wasn't great. None of my preferences were met like high floor extra towels ect. rooms were clean and comfortable. Hotel was across the street from the horse track where we going so it was convenient but wouldn't stay here otherwise</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10619143-r530254390-Fairfield_Inn_Suites_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -306,9 +414,6 @@
     <t>August 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10619143-r514039728-Fairfield_Inn_Suites_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -330,6 +435,36 @@
     <t>We were in Houston visiting my girlfriend’s family and found the Fairfield inn nearby them. Great price and looked fine. Not a location I’d stay in if I was visiting Houston as a tourist. It was very new though and had large rooms. Great bathroom and showers. The workout room is 2 treadmills that I was the only person who used. Which was annoying because they had 10 min limits on them. So you’d have to stop and restart. There are some dumbbells too. There’s a pool but it was way too hot outside. It’s off the freeway so easy access. Staff is friendly. They have breakfast with decent options for a bite in the morning. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10619143-r513830177-Fairfield_Inn_Suites_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>513830177</t>
+  </si>
+  <si>
+    <t>Pleasant stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The staff is friendly, polite, and very welcoming. Our room was great and we even had enough towels for everyone without having to ask (which was a first for our family of 4).  The property is well kept inside and out.  The stay was pleasant and when visiting the Houston area again we will stay there. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10619143-r496344261-Fairfield_Inn_Suites_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>496344261</t>
+  </si>
+  <si>
+    <t>06/26/2017</t>
+  </si>
+  <si>
+    <t>Best hotel EVER!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My family and I stayed 1 night at this hotel and it was the cleanest hotel I ever stayed at and I've had my share,  being placed in several different hotels for 8 months due to the Great flood of 2016. Dafanee (if I spelled it correctly) was the absolute best front desk/hostess I've ever met. We thoroughly enjoyed our stay and will be back when we return to visit our loved one. </t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10619143-r490801189-Fairfield_Inn_Suites_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
@@ -391,6 +526,24 @@
   </si>
   <si>
     <t>First, this is a fairly new property and the rooms are clean and decent. But as a Marriott Platinum Elite customer, I was not very satisfied with the stay. My profile says 'high floor' preferred, they put me on the first and so I had to listen to hours of people above me thinking my ceiling was their bounce house. I qualify for room upgrades, and even though they seemed not very busy and a room upgrade should have been available, I was put in a standard room. The desk clerk allowed kids to play on the business work station computer for hours--I left for dinner and was gone for two hours, and the same ones were still there, blocking use for normal, intended purposes, when I returned.  They made an error with my bill and I had to get it corrected the next morning. And the free breakfast was too basic and not very tasty. So, good room for a good price, yes. Better than average experience for me, no.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d10619143-r460880649-Fairfield_Inn_Suites_Houston_Northwest_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>460880649</t>
+  </si>
+  <si>
+    <t>02/18/2017</t>
+  </si>
+  <si>
+    <t>Awesome property</t>
+  </si>
+  <si>
+    <t>Extremely nice beautiful property. Just like a "luxury" hotel. Staff extremely friendly &amp; accommodating. Requested extra blankets, got brand new ones. Breakfast was delicious &amp; great selections. KudosMoreShow less</t>
+  </si>
+  <si>
+    <t>Extremely nice beautiful property. Just like a "luxury" hotel. Staff extremely friendly &amp; accommodating. Requested extra blankets, got brand new ones. Breakfast was delicious &amp; great selections. KudosMore</t>
   </si>
 </sst>
 </file>
@@ -925,7 +1078,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -982,27 +1135,33 @@
         <v>57</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N3" t="s">
         <v>58</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
-      </c>
-      <c r="P3" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -1039,13 +1198,13 @@
         <v>64</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1075,7 +1234,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1084,45 +1243,39 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
         <v>68</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>69</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>70</v>
-      </c>
-      <c r="L5" t="s">
-        <v>71</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="s">
-        <v>72</v>
       </c>
       <c r="O5" t="s">
         <v>52</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="n">
-        <v>4</v>
-      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -1138,7 +1291,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1147,43 +1300,39 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
         <v>75</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>76</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>77</v>
       </c>
-      <c r="L6" t="s">
-        <v>78</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>79</v>
-      </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
@@ -1199,7 +1348,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1208,45 +1357,43 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
         <v>81</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>82</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
         <v>83</v>
       </c>
-      <c r="L7" t="s">
+      <c r="O7" t="s">
         <v>84</v>
       </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>79</v>
-      </c>
-      <c r="O7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
+      <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
-      <c r="S7" t="n">
-        <v>5</v>
-      </c>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>85</v>
+      </c>
+      <c r="X7" t="s">
+        <v>86</v>
+      </c>
       <c r="Y7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
@@ -1262,7 +1409,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -1271,22 +1418,22 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="O8" t="s">
         <v>52</v>
@@ -1294,20 +1441,16 @@
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>4</v>
-      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
@@ -1323,7 +1466,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -1332,32 +1475,34 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
         <v>5</v>
@@ -1368,7 +1513,7 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
@@ -1384,7 +1529,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -1393,39 +1538,43 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L10" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="O10" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11">
@@ -1441,7 +1590,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -1450,22 +1599,22 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="O11" t="s">
         <v>52</v>
@@ -1475,7 +1624,9 @@
       </c>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
         <v>5</v>
@@ -1486,7 +1637,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12">
@@ -1526,24 +1677,30 @@
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
-      </c>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
+        <v>84</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13">
@@ -1559,7 +1716,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -1568,49 +1725,590 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="O13" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>65348</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
         <v>122</v>
       </c>
-      <c r="X13" t="s">
+      <c r="J14" t="s">
         <v>123</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="K14" t="s">
         <v>124</v>
+      </c>
+      <c r="L14" t="s">
+        <v>125</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>98</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>65348</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>127</v>
+      </c>
+      <c r="J15" t="s">
+        <v>128</v>
+      </c>
+      <c r="K15" t="s">
+        <v>129</v>
+      </c>
+      <c r="L15" t="s">
+        <v>130</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>131</v>
+      </c>
+      <c r="O15" t="s">
+        <v>84</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>65348</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>133</v>
+      </c>
+      <c r="J16" t="s">
+        <v>134</v>
+      </c>
+      <c r="K16" t="s">
+        <v>135</v>
+      </c>
+      <c r="L16" t="s">
+        <v>136</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>137</v>
+      </c>
+      <c r="O16" t="s">
+        <v>84</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>65348</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>140</v>
+      </c>
+      <c r="J17" t="s">
+        <v>134</v>
+      </c>
+      <c r="K17" t="s">
+        <v>141</v>
+      </c>
+      <c r="L17" t="s">
+        <v>142</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>131</v>
+      </c>
+      <c r="O17" t="s">
+        <v>59</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>65348</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>144</v>
+      </c>
+      <c r="J18" t="s">
+        <v>145</v>
+      </c>
+      <c r="K18" t="s">
+        <v>146</v>
+      </c>
+      <c r="L18" t="s">
+        <v>147</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>148</v>
+      </c>
+      <c r="O18" t="s">
+        <v>59</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>65348</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>150</v>
+      </c>
+      <c r="J19" t="s">
+        <v>151</v>
+      </c>
+      <c r="K19" t="s">
+        <v>152</v>
+      </c>
+      <c r="L19" t="s">
+        <v>153</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>154</v>
+      </c>
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>65348</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>155</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>156</v>
+      </c>
+      <c r="J20" t="s">
+        <v>157</v>
+      </c>
+      <c r="K20" t="s">
+        <v>158</v>
+      </c>
+      <c r="L20" t="s">
+        <v>159</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>154</v>
+      </c>
+      <c r="O20" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>65348</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>160</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>161</v>
+      </c>
+      <c r="J21" t="s">
+        <v>162</v>
+      </c>
+      <c r="K21" t="s">
+        <v>163</v>
+      </c>
+      <c r="L21" t="s">
+        <v>164</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>165</v>
+      </c>
+      <c r="O21" t="s">
+        <v>166</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>167</v>
+      </c>
+      <c r="X21" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>65348</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>170</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>171</v>
+      </c>
+      <c r="J22" t="s">
+        <v>172</v>
+      </c>
+      <c r="K22" t="s">
+        <v>173</v>
+      </c>
+      <c r="L22" t="s">
+        <v>174</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>165</v>
+      </c>
+      <c r="O22" t="s">
+        <v>59</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>167</v>
+      </c>
+      <c r="X22" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
